--- a/documents/테이블 정의서.xlsx
+++ b/documents/테이블 정의서.xlsx
@@ -8,16 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\siat_final_project\XPOS-Manager\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{306F7BD6-DA09-404F-87FE-37755F3AE756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D030FBA-B657-4F1A-B709-D7B0F6F0732B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="2" xr2:uid="{23F431DE-E5DE-4A76-B807-59BB60D14234}"/>
+    <workbookView xWindow="3348" yWindow="3348" windowWidth="17280" windowHeight="8964" xr2:uid="{23F431DE-E5DE-4A76-B807-59BB60D14234}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet5" sheetId="5" r:id="rId1"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
+    <sheet name="멤버쉽 고객 구매 이력" sheetId="10" r:id="rId1"/>
+    <sheet name="멤버쉽 고객 기본 정보" sheetId="9" r:id="rId2"/>
+    <sheet name="물품별 구매자 기록" sheetId="8" r:id="rId3"/>
+    <sheet name="판매 이력" sheetId="5" r:id="rId4"/>
+    <sheet name="입고 신청 이력" sheetId="4" r:id="rId5"/>
+    <sheet name="재고 현황" sheetId="3" r:id="rId6"/>
+    <sheet name="모든 상품 기본 정보" sheetId="2" r:id="rId7"/>
+    <sheet name="직원 근무 기록" sheetId="7" r:id="rId8"/>
+    <sheet name="직원 급여 지급 기록" sheetId="6" r:id="rId9"/>
+    <sheet name="직원 기본 정보" sheetId="1" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="165">
   <si>
     <t>테이블정의서</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -49,7 +54,7 @@
     <t xml:space="preserve"> Table 명</t>
   </si>
   <si>
-    <t>SALES_RECORDS</t>
+    <t>MEMBERSHIP_CUSTOMER_RECORDS</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -57,7 +62,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>SCM</t>
+    <t>CRM</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -65,7 +70,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Sales_records</t>
+    <t>MemberShip_customer_records</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -73,8 +78,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>정승균</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>김주현</t>
   </si>
   <si>
     <t xml:space="preserve"> Entity 정의</t>
@@ -106,23 +110,188 @@
     <t>비       고</t>
   </si>
   <si>
+    <t>CUSTOMER_NUM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>멤버쉽 고객 번호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>SALES_NUM</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>판매(구매) 번호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 판매 번호를 통해 해당 판매 정보 조회 가능</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>USED_POINT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용한 포인트</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 포인트를 사용하지 않았으면 0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBERSHIP_CUSTOMERS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemberShip_customers</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUSTOMER_NAME</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객 이름</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(30)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUSTOMER_BIRTH_DATE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객 생년월일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUSTOMER_GENDER</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객 성별</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(2)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 남자는 "m", 여자는 "f"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUSTOMER_PHONE_NUM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객 연락처</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(15)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 휴대전화가 없으면 멤버쉽 가입 불가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>POINT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객 소지 포인트</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 최초 가입 시 0으로 초기화</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SALES_CONSUMERS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales_consumers</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>판매 번호</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>NUMBER</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRIMARY KEY</t>
+    <t>CONSUMER_GENDER</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매자 성별</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 남자는 "m", 여자는 "f"
+* 판별이 불가하면 "-"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONSUMER_AGE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매자 나이대</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER(3)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 10대 / 20대 / 30대 등 간단하게만 작성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONSUMER_CLOTHES</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매자 복장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>* "외출복", "정장", "운동복", "잠옷", "편한옷" 등으로 작성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SALES_RECORDS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales_records</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -134,15 +303,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>DATE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITEM_ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매 물품 아이디</t>
+    <t>ITEM_NUM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매 물품 번호</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -150,7 +315,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>판매량</t>
+    <t>판매 개수</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -158,6 +323,21 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>PAYMENT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제 수단</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 현금 결제는 "현금"
+* 신용 및 체크카드 결제는 "카드"
+* 교통카드 결제는 "교통카드"
+* 삼성페이 등의 모바일 결제는 "모바일"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>REQ_IN_WAREHOUSE</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -174,7 +354,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>물품 아이디</t>
+    <t>물품 번호</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -202,13 +382,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>김주현</t>
-  </si>
-  <si>
-    <t>item_id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>IN_CNT</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -245,10 +418,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>VARCHAR2(15)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>* 어떠한 이유로 진열할 수 없는 경우도 존재</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -277,10 +446,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>VARCHAR2(30)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>* 행사 이름을 문자열 그대로 저장("1+1", "2+1" 등)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -353,30 +518,103 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>EMPLOYEE_WORK_LOGS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HRM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Employee_work_logs</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORK_LOG_NUM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>근무 일지 번호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(20)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2022-01-01_000000001" 형식으로 작성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMP_NUM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원 번호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>START_WORK</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>출근 시각</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>END_WORK</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>퇴근 시각</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DISCRIPTION</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>근무 상태</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 특별한 일 없이 출퇴근 했다면 "근무"
+* 연·월차 / 반차 사용 시 "휴가"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMPLOYEE_PAY_RECORDS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Employee_pay_records</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAY_DATE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>급여 지급일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAY_VALUE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>지급 금액</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>employees</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>HRM</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Employees</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>EMP_NUM</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>직원 번호</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER(3)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>EMP_PASSWORD</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -414,10 +652,6 @@
   </si>
   <si>
     <t>성별</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(2)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -477,7 +711,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -532,6 +766,12 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="굴림체"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -547,7 +787,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -730,6 +970,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -737,7 +1071,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -766,11 +1100,32 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -804,6 +1159,39 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1119,39 +1507,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DFB0DFE-D17B-4A38-A801-C4E0875195B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE5BA791-22E2-45EB-9919-50DE9D7B91D9}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.45"/>
   <sheetData>
     <row r="1" spans="1:10" ht="17.45" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="17.45" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10">
@@ -1166,59 +1554,59 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:10" ht="16.5">
+      <c r="A4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="20" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="12" t="s">
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="13" t="s">
+      <c r="H4" s="19"/>
+      <c r="I4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="13"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="12" t="s">
+      <c r="J4" s="20"/>
+    </row>
+    <row r="5" spans="1:10" ht="17.45" customHeight="1">
+      <c r="A5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="20" t="s">
+      <c r="B5" s="19"/>
+      <c r="C5" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="12" t="s">
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="13" t="s">
+      <c r="H5" s="19"/>
+      <c r="I5" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="13"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="12" t="s">
+      <c r="J5" s="38"/>
+    </row>
+    <row r="6" spans="1:10" ht="16.5">
+      <c r="A6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
     </row>
     <row r="7" spans="1:10" ht="18" thickBot="1">
       <c r="A7" s="3" t="s">
@@ -1239,12 +1627,12 @@
       <c r="F7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
     </row>
     <row r="8" spans="1:10" ht="27" thickTop="1">
       <c r="A8" s="4">
@@ -1262,13 +1650,13 @@
       <c r="E8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="16"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
     </row>
     <row r="9" spans="1:10" ht="26.45">
       <c r="A9" s="7">
@@ -1282,15 +1670,18 @@
         <v>23</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="11"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="23"/>
     </row>
     <row r="10" spans="1:10" ht="26.45">
       <c r="A10" s="7">
@@ -1310,33 +1701,27 @@
         <v>20</v>
       </c>
       <c r="F10" s="9"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
+      <c r="G10" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>20</v>
-      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
       <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="14"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="7">
@@ -1348,10 +1733,10 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="14"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="7">
@@ -1363,10 +1748,10 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="14"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="7">
@@ -1378,10 +1763,10 @@
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="14"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="7">
@@ -1393,10 +1778,10 @@
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="11"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="14"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="7">
@@ -1408,10 +1793,10 @@
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="11"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="14"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="7">
@@ -1423,10 +1808,10 @@
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="11"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="14"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="7">
@@ -1438,10 +1823,10 @@
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="11"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="14"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="7">
@@ -1453,10 +1838,10 @@
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="11"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="14"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="7">
@@ -1468,10 +1853,10 @@
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="11"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="14"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="7">
@@ -1483,10 +1868,10 @@
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="11"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="14"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="7">
@@ -1498,10 +1883,10 @@
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="11"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="14"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="7">
@@ -1513,10 +1898,10 @@
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="11"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="14"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="7">
@@ -1528,10 +1913,10 @@
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="11"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="14"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="7">
@@ -1543,10 +1928,10 @@
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="11"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="14"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="7">
@@ -1558,10 +1943,10 @@
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="11"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="14"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="7">
@@ -1573,10 +1958,10 @@
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="11"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="14"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="7">
@@ -1588,10 +1973,10 @@
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="11"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="14"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="7">
@@ -1603,10 +1988,10 @@
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="11"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="14"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="7">
@@ -1618,10 +2003,10 @@
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="11"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="14"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="7">
@@ -1633,10 +2018,10 @@
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="11"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="14"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="7">
@@ -1648,10 +2033,10 @@
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="11"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="14"/>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="7">
@@ -1663,10 +2048,10 @@
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="11"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="14"/>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="7">
@@ -1678,10 +2063,10 @@
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="11"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="14"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="7">
@@ -1693,10 +2078,10 @@
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="11"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="14"/>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="7">
@@ -1708,10 +2093,10 @@
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="11"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="14"/>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="7">
@@ -1723,16 +2108,16 @@
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="11"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="14"/>
     </row>
     <row r="38" spans="1:10">
       <c r="B38" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="43">
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="G5:H5"/>
@@ -1746,7 +2131,6 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="G7:J7"/>
-    <mergeCell ref="G8:J8"/>
     <mergeCell ref="G9:J9"/>
     <mergeCell ref="G10:J10"/>
     <mergeCell ref="G11:J11"/>
@@ -1761,60 +2145,62 @@
     <mergeCell ref="G20:J20"/>
     <mergeCell ref="G21:J21"/>
     <mergeCell ref="G22:J22"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="G27:J27"/>
     <mergeCell ref="G35:J35"/>
     <mergeCell ref="G36:J36"/>
     <mergeCell ref="G37:J37"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:J8"/>
     <mergeCell ref="G29:J29"/>
     <mergeCell ref="G30:J30"/>
     <mergeCell ref="G31:J31"/>
     <mergeCell ref="G32:J32"/>
     <mergeCell ref="G33:J33"/>
     <mergeCell ref="G34:J34"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="G27:J27"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6105071E-28A0-47F4-B07D-8D03B2F631DA}">
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141A7512-D431-462C-A6A3-3DDF3FE6DA10}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:J7"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.45"/>
   <sheetData>
     <row r="1" spans="1:10" ht="17.45" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="17.45" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10">
@@ -1830,58 +2216,58 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="12" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="13"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="12" t="s">
+      <c r="H4" s="19"/>
+      <c r="I4" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="J4" s="20"/>
+    </row>
+    <row r="5" spans="1:10" ht="16.5">
+      <c r="A5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="12" t="s">
+      <c r="B5" s="19"/>
+      <c r="C5" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="13" t="s">
+      <c r="H5" s="19"/>
+      <c r="I5" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="13"/>
+      <c r="J5" s="20"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
     </row>
     <row r="7" spans="1:10" ht="18" thickBot="1">
       <c r="A7" s="3" t="s">
@@ -1902,22 +2288,22 @@
       <c r="F7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
     </row>
     <row r="8" spans="1:10" ht="27" thickTop="1">
       <c r="A8" s="4">
         <v>1</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>19</v>
@@ -1928,10 +2314,729 @@
       <c r="F8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="16"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="23"/>
+    </row>
+    <row r="9" spans="1:10" ht="39.6">
+      <c r="A9" s="7">
+        <f>SUM(A8,1)</f>
+        <v>2</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="14"/>
+    </row>
+    <row r="10" spans="1:10" ht="26.45">
+      <c r="A10" s="7">
+        <f t="shared" ref="A10:A37" si="0">SUM(A9,1)</f>
+        <v>3</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:10" ht="26.45">
+      <c r="A11" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="14"/>
+    </row>
+    <row r="12" spans="1:10" ht="26.45">
+      <c r="A12" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="14"/>
+    </row>
+    <row r="13" spans="1:10" ht="26.45">
+      <c r="A13" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="14"/>
+    </row>
+    <row r="14" spans="1:10" ht="26.45">
+      <c r="A14" s="7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="14"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="14"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="14"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="14"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="7">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="14"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="7">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="14"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="7">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="14"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="7">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="14"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="7">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="14"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="7">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="14"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="7">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="14"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="7">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="14"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="7">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="14"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="7">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="14"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="7">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="14"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="7">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="14"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="7">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="14"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="7">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="14"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="7">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="14"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="7">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="14"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="7">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="14"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="7">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="14"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="7">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="14"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="7">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="14"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="B38" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="41">
+    <mergeCell ref="B1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="G36:J36"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930609E5-B52E-4766-B6B4-C93504D4A857}">
+  <dimension ref="A1:J38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5:J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.45"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="17.45" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="17.45" customHeight="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="19"/>
+      <c r="I4" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="20"/>
+    </row>
+    <row r="5" spans="1:10" ht="16.5">
+      <c r="A5" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="19"/>
+      <c r="I5" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="20"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+    </row>
+    <row r="7" spans="1:10" ht="18" thickBot="1">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+    </row>
+    <row r="8" spans="1:10" ht="27" thickTop="1">
+      <c r="A8" s="4">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="23"/>
     </row>
     <row r="9" spans="1:10" ht="26.45">
       <c r="A9" s="7">
@@ -1939,44 +3044,44 @@
         <v>2</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="11"/>
-    </row>
-    <row r="10" spans="1:10" ht="26.45">
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="14"/>
+    </row>
+    <row r="10" spans="1:10" ht="39.6">
       <c r="A10" s="7">
         <f t="shared" ref="A10:A37" si="0">SUM(A9,1)</f>
         <v>3</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>35</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>20</v>
       </c>
       <c r="F10" s="9"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
     </row>
     <row r="11" spans="1:10" ht="26.45">
       <c r="A11" s="7">
@@ -1984,52 +3089,74 @@
         <v>4</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="D11" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>24</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>20</v>
       </c>
       <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="G11" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="14"/>
+    </row>
+    <row r="12" spans="1:10" ht="26.45">
       <c r="A12" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
+      <c r="B12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="G12" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="14"/>
+    </row>
+    <row r="13" spans="1:10" ht="26.45">
       <c r="A13" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
+      <c r="B13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="F13" s="9"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
+      <c r="G13" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="14"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="7">
@@ -2041,10 +3168,10 @@
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="14"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="7">
@@ -2056,10 +3183,10 @@
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="11"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="14"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="7">
@@ -2071,10 +3198,10 @@
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="11"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="14"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="7">
@@ -2086,10 +3213,10 @@
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="11"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="14"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="7">
@@ -2101,10 +3228,10 @@
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="11"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="14"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="7">
@@ -2116,10 +3243,10 @@
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="11"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="14"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="7">
@@ -2131,10 +3258,10 @@
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="11"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="14"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="7">
@@ -2146,10 +3273,10 @@
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="11"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="14"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="7">
@@ -2161,10 +3288,10 @@
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="11"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="14"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="7">
@@ -2176,10 +3303,10 @@
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="11"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="14"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="7">
@@ -2191,10 +3318,10 @@
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="11"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="14"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="7">
@@ -2206,10 +3333,10 @@
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="11"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="14"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="7">
@@ -2221,10 +3348,10 @@
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="11"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="14"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="7">
@@ -2236,10 +3363,10 @@
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="11"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="14"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="7">
@@ -2251,10 +3378,10 @@
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="11"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="14"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="7">
@@ -2266,10 +3393,10 @@
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="11"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="14"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="7">
@@ -2281,10 +3408,10 @@
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="11"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="14"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="7">
@@ -2296,10 +3423,10 @@
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="11"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="14"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="7">
@@ -2311,10 +3438,10 @@
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="11"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="14"/>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="7">
@@ -2326,10 +3453,10 @@
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="11"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="14"/>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="7">
@@ -2341,10 +3468,10 @@
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="11"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="14"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="7">
@@ -2356,10 +3483,10 @@
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="11"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="14"/>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="7">
@@ -2371,10 +3498,10 @@
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="11"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="14"/>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="7">
@@ -2386,10 +3513,10 @@
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="11"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="14"/>
     </row>
     <row r="38" spans="1:10">
       <c r="B38" s="8"/>
@@ -2445,39 +3572,39 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50C2582E-94D0-4600-B70F-7DA48EDBD766}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E16E64-70BF-4949-AC13-FA8DBB0C4AD0}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.45"/>
   <sheetData>
     <row r="1" spans="1:10" ht="17.45" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="17.45" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10">
@@ -2493,58 +3620,58 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="12" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="13"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="20"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="12" t="s">
+      <c r="B5" s="19"/>
+      <c r="C5" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" s="13"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="20"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
     </row>
     <row r="7" spans="1:10" ht="18" thickBot="1">
       <c r="A7" s="3" t="s">
@@ -2565,22 +3692,22 @@
       <c r="F7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
     </row>
     <row r="8" spans="1:10" ht="27" thickTop="1">
       <c r="A8" s="4">
         <v>1</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>19</v>
@@ -2591,156 +3718,129 @@
       <c r="F8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="16"/>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="23"/>
+    </row>
+    <row r="9" spans="1:10" ht="26.45">
       <c r="A9" s="7">
         <f>SUM(A8,1)</f>
         <v>2</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>19</v>
+        <v>52</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="11"/>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="G9" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="14"/>
+    </row>
+    <row r="10" spans="1:10" ht="26.45">
       <c r="A10" s="7">
         <f t="shared" ref="A10:A37" si="0">SUM(A9,1)</f>
         <v>3</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>20</v>
       </c>
       <c r="F10" s="9"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="G10" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+    </row>
+    <row r="11" spans="1:10" ht="26.45">
       <c r="A11" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>20</v>
       </c>
       <c r="F11" s="9"/>
-      <c r="G11" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" ht="26.45">
+      <c r="G11" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="14"/>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="9" t="b">
-        <v>1</v>
-      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="14"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>20</v>
-      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
       <c r="F13" s="9"/>
-      <c r="G13" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" ht="26.45">
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="14"/>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="9" t="b">
-        <v>1</v>
-      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
       <c r="F14" s="9"/>
-      <c r="G14" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="14"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="7">
@@ -2752,10 +3852,10 @@
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="11"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="14"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="7">
@@ -2767,10 +3867,10 @@
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="11"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="14"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="7">
@@ -2782,10 +3882,10 @@
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="11"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="14"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="7">
@@ -2797,10 +3897,10 @@
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="11"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="14"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="7">
@@ -2812,10 +3912,10 @@
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="11"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="14"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="7">
@@ -2827,10 +3927,10 @@
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="11"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="14"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="7">
@@ -2842,10 +3942,10 @@
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="11"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="14"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="7">
@@ -2857,10 +3957,10 @@
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="11"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="14"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="7">
@@ -2872,10 +3972,10 @@
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="11"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="14"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="7">
@@ -2887,10 +3987,10 @@
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="11"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="14"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="7">
@@ -2902,10 +4002,10 @@
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="11"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="14"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="7">
@@ -2917,10 +4017,10 @@
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="11"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="14"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="7">
@@ -2932,10 +4032,10 @@
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="11"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="14"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="7">
@@ -2947,10 +4047,10 @@
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="11"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="14"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="7">
@@ -2962,10 +4062,10 @@
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="11"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="14"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="7">
@@ -2977,10 +4077,10 @@
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="11"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="14"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="7">
@@ -2992,10 +4092,10 @@
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="11"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="14"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="7">
@@ -3007,10 +4107,10 @@
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="11"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="14"/>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="7">
@@ -3022,10 +4122,10 @@
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="11"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="14"/>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="7">
@@ -3037,10 +4137,10 @@
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="11"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="14"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="7">
@@ -3052,10 +4152,10 @@
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="11"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="14"/>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="7">
@@ -3067,10 +4167,10 @@
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="11"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="14"/>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="7">
@@ -3082,10 +4182,10 @@
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="11"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="14"/>
     </row>
     <row r="38" spans="1:10">
       <c r="B38" s="8"/>
@@ -3141,39 +4241,39 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE51EB42-2843-4137-B03D-4B7C06449F1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DFB0DFE-D17B-4A38-A801-C4E0875195B3}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:J5"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.45"/>
   <sheetData>
     <row r="1" spans="1:10" ht="17.45" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="17.45" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10">
@@ -3189,58 +4289,58 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="20" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="19"/>
+      <c r="I4" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="20"/>
+    </row>
+    <row r="5" spans="1:10" ht="16.5">
+      <c r="A5" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="13"/>
-    </row>
-    <row r="5" spans="1:10" ht="16.5">
-      <c r="A5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="12" t="s">
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" s="13"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="20"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
     </row>
     <row r="7" spans="1:10" ht="18" thickBot="1">
       <c r="A7" s="3" t="s">
@@ -3261,22 +4361,22 @@
       <c r="F7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
     </row>
     <row r="8" spans="1:10" ht="27" thickTop="1">
       <c r="A8" s="4">
         <v>1</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>19</v>
@@ -3287,10 +4387,10 @@
       <c r="F8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="16"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="23"/>
     </row>
     <row r="9" spans="1:10" ht="26.45">
       <c r="A9" s="7">
@@ -3298,22 +4398,21 @@
         <v>2</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>66</v>
+      <c r="D9" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="11"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="14"/>
     </row>
     <row r="10" spans="1:10" ht="26.45">
       <c r="A10" s="7">
@@ -3321,45 +4420,45 @@
         <v>3</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>20</v>
       </c>
       <c r="F10" s="9"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-    </row>
-    <row r="11" spans="1:10" ht="26.45">
+      <c r="G10" s="24"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>20</v>
       </c>
       <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="14"/>
     </row>
     <row r="12" spans="1:10" ht="26.45">
       <c r="A12" s="7">
@@ -3367,49 +4466,39 @@
         <v>5</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>20</v>
       </c>
       <c r="F12" s="9"/>
-      <c r="G12" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" ht="26.45">
+      <c r="G12" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="14"/>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="9" t="b">
-        <v>1</v>
-      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
       <c r="F13" s="9"/>
-      <c r="G13" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="14"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="7">
@@ -3421,10 +4510,10 @@
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="14"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="7">
@@ -3436,10 +4525,10 @@
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="11"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="14"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="7">
@@ -3451,10 +4540,10 @@
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="11"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="14"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="7">
@@ -3466,10 +4555,10 @@
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="11"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="14"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="7">
@@ -3481,10 +4570,10 @@
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="11"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="14"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="7">
@@ -3496,10 +4585,10 @@
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="11"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="14"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="7">
@@ -3511,10 +4600,10 @@
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="11"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="14"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="7">
@@ -3526,10 +4615,10 @@
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="11"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="14"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="7">
@@ -3541,10 +4630,10 @@
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="11"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="14"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="7">
@@ -3556,10 +4645,10 @@
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="11"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="14"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="7">
@@ -3571,10 +4660,10 @@
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="11"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="14"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="7">
@@ -3586,10 +4675,10 @@
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="11"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="14"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="7">
@@ -3601,10 +4690,10 @@
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="11"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="14"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="7">
@@ -3616,10 +4705,10 @@
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="11"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="14"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="7">
@@ -3631,10 +4720,10 @@
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="11"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="14"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="7">
@@ -3646,10 +4735,10 @@
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="11"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="14"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="7">
@@ -3661,10 +4750,10 @@
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="11"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="14"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="7">
@@ -3676,10 +4765,10 @@
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="11"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="14"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="7">
@@ -3691,10 +4780,10 @@
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="11"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="14"/>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="7">
@@ -3706,10 +4795,10 @@
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="11"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="14"/>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="7">
@@ -3721,10 +4810,10 @@
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="11"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="14"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="7">
@@ -3736,10 +4825,10 @@
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="11"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="14"/>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="7">
@@ -3751,10 +4840,10 @@
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="11"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="14"/>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="7">
@@ -3766,16 +4855,49 @@
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="11"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="14"/>
     </row>
     <row r="38" spans="1:10">
       <c r="B38" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G15:J15"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="G5:H5"/>
@@ -3785,23 +4907,2007 @@
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I4:J4"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6105071E-28A0-47F4-B07D-8D03B2F631DA}">
+  <dimension ref="A1:J38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.45"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="17.45" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="17.45" customHeight="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="19"/>
+      <c r="I4" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="20"/>
+    </row>
+    <row r="5" spans="1:10" ht="16.5">
+      <c r="A5" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="19"/>
+      <c r="I5" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="20"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+    </row>
+    <row r="7" spans="1:10" ht="18" thickBot="1">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+    </row>
+    <row r="8" spans="1:10" ht="27" thickTop="1">
+      <c r="A8" s="4">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="23"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="7">
+        <f>SUM(A8,1)</f>
+        <v>2</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="14"/>
+    </row>
+    <row r="10" spans="1:10" ht="26.45">
+      <c r="A10" s="7">
+        <f t="shared" ref="A10:A37" si="0">SUM(A9,1)</f>
+        <v>3</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+    </row>
+    <row r="11" spans="1:10" ht="26.45">
+      <c r="A11" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="14"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="14"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="14"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="14"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="14"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="14"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="14"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="7">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="14"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="7">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="14"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="7">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="14"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="7">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="14"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="7">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="14"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="7">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="14"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="7">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="14"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="7">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="14"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="7">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="14"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="7">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="14"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="7">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="14"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="7">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="14"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="7">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="14"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="7">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="14"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="7">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="14"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="7">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="14"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="7">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="14"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="7">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="14"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="7">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="14"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="7">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="14"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="B38" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="42">
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="G28:J28"/>
     <mergeCell ref="G17:J17"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="G16:J16"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="G7:J7"/>
     <mergeCell ref="G8:J8"/>
     <mergeCell ref="G9:J9"/>
+    <mergeCell ref="G10:J10"/>
     <mergeCell ref="G11:J11"/>
     <mergeCell ref="G12:J12"/>
     <mergeCell ref="G13:J13"/>
     <mergeCell ref="G14:J14"/>
     <mergeCell ref="G15:J15"/>
-    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="B1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50C2582E-94D0-4600-B70F-7DA48EDBD766}">
+  <dimension ref="A1:J38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.45"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="17.45" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="17.45" customHeight="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="19"/>
+      <c r="I4" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="20"/>
+    </row>
+    <row r="5" spans="1:10" ht="16.5">
+      <c r="A5" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="19"/>
+      <c r="I5" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="20"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+    </row>
+    <row r="7" spans="1:10" ht="18" thickBot="1">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+    </row>
+    <row r="8" spans="1:10" ht="27" thickTop="1">
+      <c r="A8" s="4">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="23"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="7">
+        <f>SUM(A8,1)</f>
+        <v>2</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="14"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="7">
+        <f t="shared" ref="A10:A37" si="0">SUM(A9,1)</f>
+        <v>3</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="14"/>
+    </row>
+    <row r="12" spans="1:10" ht="26.45">
+      <c r="A12" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="14"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="14"/>
+    </row>
+    <row r="14" spans="1:10" ht="26.45">
+      <c r="A14" s="7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="14"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="14"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="14"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="14"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="7">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="14"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="7">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="14"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="7">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="14"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="7">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="14"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="7">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="14"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="7">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="14"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="7">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="14"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="7">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="14"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="7">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="14"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="7">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="14"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="7">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="14"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="7">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="14"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="7">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="14"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="7">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="14"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="7">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="14"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="7">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="14"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="7">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="14"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="7">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="14"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="7">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="14"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="7">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="14"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="B38" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="42">
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="G18:J18"/>
     <mergeCell ref="G19:J19"/>
     <mergeCell ref="G20:J20"/>
     <mergeCell ref="G21:J21"/>
     <mergeCell ref="G22:J22"/>
     <mergeCell ref="G23:J23"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="B1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE51EB42-2843-4137-B03D-4B7C06449F1E}">
+  <dimension ref="A1:J38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.45"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="17.45" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="17.45" customHeight="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="19"/>
+      <c r="I4" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="20"/>
+    </row>
+    <row r="5" spans="1:10" ht="16.5">
+      <c r="A5" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="19"/>
+      <c r="I5" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="20"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+    </row>
+    <row r="7" spans="1:10" ht="18" thickBot="1">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+    </row>
+    <row r="8" spans="1:10" ht="27" thickTop="1">
+      <c r="A8" s="4">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="23"/>
+    </row>
+    <row r="9" spans="1:10" ht="26.45">
+      <c r="A9" s="7">
+        <f>SUM(A8,1)</f>
+        <v>2</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="14"/>
+    </row>
+    <row r="10" spans="1:10" ht="26.45">
+      <c r="A10" s="7">
+        <f t="shared" ref="A10:A37" si="0">SUM(A9,1)</f>
+        <v>3</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+    </row>
+    <row r="11" spans="1:10" ht="26.45">
+      <c r="A11" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="14"/>
+    </row>
+    <row r="12" spans="1:10" ht="26.45">
+      <c r="A12" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="14"/>
+    </row>
+    <row r="13" spans="1:10" ht="26.45">
+      <c r="A13" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="14"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="14"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="14"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="14"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="14"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="7">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="14"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="7">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="14"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="7">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="14"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="7">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="14"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="7">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="14"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="7">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="14"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="7">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="14"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="7">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="14"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="7">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="14"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="7">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="14"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="7">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="14"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="7">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="14"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="7">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="14"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="7">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="14"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="7">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="14"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="7">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="14"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="7">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="14"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="7">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="14"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="7">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="14"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="7">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="14"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="B38" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="42">
     <mergeCell ref="G36:J36"/>
     <mergeCell ref="G37:J37"/>
     <mergeCell ref="G10:J10"/>
@@ -3818,46 +6924,72 @@
     <mergeCell ref="G28:J28"/>
     <mergeCell ref="G29:J29"/>
     <mergeCell ref="G18:J18"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="B1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141A7512-D431-462C-A6A3-3DDF3FE6DA10}">
-  <dimension ref="A1:J38"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EDEE289-220A-4760-93F2-E3C5BFA6119F}">
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="C6:J6"/>
+      <selection activeCell="G4" sqref="G4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.45"/>
   <sheetData>
     <row r="1" spans="1:10" ht="17.45" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="17.45" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10">
@@ -3873,58 +7005,58 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="12" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="J4" s="13"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="J4" s="20"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="12" t="s">
+      <c r="B5" s="19"/>
+      <c r="C5" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" s="13"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="20"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
     </row>
     <row r="7" spans="1:10" ht="18" thickBot="1">
       <c r="A7" s="3" t="s">
@@ -3945,105 +7077,103 @@
       <c r="F7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-    </row>
-    <row r="8" spans="1:10" ht="27" thickTop="1">
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+    </row>
+    <row r="8" spans="1:10" ht="27" customHeight="1" thickTop="1" thickBot="1">
       <c r="A8" s="4">
         <v>1</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="B8" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="16"/>
-    </row>
-    <row r="9" spans="1:10" ht="39.6">
+      <c r="G8" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="31"/>
+    </row>
+    <row r="9" spans="1:10" ht="18" thickTop="1">
       <c r="A9" s="7">
         <f>SUM(A8,1)</f>
         <v>2</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="11"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="34"/>
     </row>
     <row r="10" spans="1:10" ht="26.45">
       <c r="A10" s="7">
         <f t="shared" ref="A10:A37" si="0">SUM(A9,1)</f>
         <v>3</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>88</v>
+      <c r="B10" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" ht="26.45">
+        <v>35</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="37"/>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>20</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E11" s="9"/>
       <c r="F11" s="9"/>
-      <c r="G11" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
     </row>
     <row r="12" spans="1:10" ht="26.45">
       <c r="A12" s="7">
@@ -4051,145 +7181,99 @@
         <v>5</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>20</v>
       </c>
       <c r="F12" s="9"/>
-      <c r="G12" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" ht="26.45">
+      <c r="G12" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="14"/>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>20</v>
-      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
       <c r="F13" s="9"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" ht="26.45">
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="14"/>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="9" t="b">
-        <v>1</v>
-      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
       <c r="F14" s="9"/>
-      <c r="G14" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="14"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>20</v>
-      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="11"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="14"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>20</v>
-      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="11"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="14"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="7">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>20</v>
-      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="11"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="14"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="7">
@@ -4201,10 +7285,10 @@
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="11"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="14"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="7">
@@ -4216,10 +7300,10 @@
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="11"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="14"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="7">
@@ -4231,10 +7315,10 @@
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="11"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="14"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="7">
@@ -4246,10 +7330,10 @@
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="11"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="14"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="7">
@@ -4261,10 +7345,10 @@
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="11"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="14"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="7">
@@ -4276,10 +7360,10 @@
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="11"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="14"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="7">
@@ -4291,10 +7375,10 @@
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="11"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="14"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="7">
@@ -4306,10 +7390,10 @@
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="11"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="14"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="7">
@@ -4321,10 +7405,10 @@
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="11"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="14"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="7">
@@ -4336,10 +7420,10 @@
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="11"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="14"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="7">
@@ -4351,10 +7435,10 @@
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="11"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="14"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="7">
@@ -4366,10 +7450,10 @@
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="11"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="14"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="7">
@@ -4381,10 +7465,10 @@
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="11"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="14"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="7">
@@ -4396,10 +7480,10 @@
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="11"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="14"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="7">
@@ -4411,10 +7495,10 @@
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="11"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="14"/>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="7">
@@ -4426,10 +7510,10 @@
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="11"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="14"/>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="7">
@@ -4441,10 +7525,10 @@
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="11"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="14"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="7">
@@ -4456,10 +7540,10 @@
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="11"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="14"/>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="7">
@@ -4471,10 +7555,10 @@
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="11"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="14"/>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="7">
@@ -4486,57 +7570,725 @@
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="11"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="14"/>
     </row>
     <row r="38" spans="1:10">
       <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="14"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="B39" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="G27:J27"/>
+  <mergeCells count="43">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="B1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G15:J15"/>
     <mergeCell ref="G28:J28"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="G26:J26"/>
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="G18:J18"/>
     <mergeCell ref="G19:J19"/>
     <mergeCell ref="G20:J20"/>
     <mergeCell ref="G21:J21"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="G38:J38"/>
     <mergeCell ref="G8:J8"/>
-    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="G27:J27"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C640122D-9D6A-43AA-9021-D711FC93026D}">
+  <dimension ref="A1:J38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.45"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="17.45" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="17.45" customHeight="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="19"/>
+      <c r="I4" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="J4" s="20"/>
+    </row>
+    <row r="5" spans="1:10" ht="16.5">
+      <c r="A5" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="19"/>
+      <c r="I5" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="20"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+    </row>
+    <row r="7" spans="1:10" ht="18" thickBot="1">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+    </row>
+    <row r="8" spans="1:10" ht="27" customHeight="1" thickTop="1">
+      <c r="A8" s="4">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="32"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="34"/>
+    </row>
+    <row r="9" spans="1:10" ht="26.45">
+      <c r="A9" s="7">
+        <f>SUM(A8,1)</f>
+        <v>2</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="16"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="37"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="7">
+        <f t="shared" ref="A10:A37" si="0">SUM(A9,1)</f>
+        <v>3</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="14"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="14"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="14"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="14"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="14"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="14"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="14"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="7">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="14"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="7">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="14"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="7">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="14"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="7">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="14"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="7">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="14"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="7">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="14"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="7">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="14"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="7">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="14"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="7">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="14"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="7">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="14"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="7">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="14"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="7">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="14"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="7">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="14"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="7">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="14"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="7">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="14"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="7">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="14"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="7">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="14"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="7">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="14"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="7">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="14"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="7">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="14"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="B38" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="43">
     <mergeCell ref="G11:J11"/>
+    <mergeCell ref="B1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:J6"/>
-    <mergeCell ref="B1:I2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="G29:J29"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/테이블 정의서.xlsx
+++ b/documents/테이블 정의서.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\clone\TJSManager\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\siat_final_project\TJSManager\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5041D14-C5C7-4B87-990F-1AE4A37301A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE7A6BC9-B630-4A51-974A-B7E445BB0F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" firstSheet="8" activeTab="13" xr2:uid="{23F431DE-E5DE-4A76-B807-59BB60D14234}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" firstSheet="13" activeTab="13" xr2:uid="{23F431DE-E5DE-4A76-B807-59BB60D14234}"/>
   </bookViews>
   <sheets>
     <sheet name="멤버쉽 고객 구매 이력" sheetId="10" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="물품별 구매자 기록" sheetId="8" r:id="rId3"/>
     <sheet name="판매 이력" sheetId="5" r:id="rId4"/>
     <sheet name="입고 신청 이력" sheetId="4" r:id="rId5"/>
-    <sheet name="승인대기 입고 신청 이력" sheetId="14" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="14" r:id="rId6"/>
     <sheet name="재고 현황" sheetId="3" r:id="rId7"/>
     <sheet name="모든 상품 기본 정보" sheetId="2" r:id="rId8"/>
     <sheet name="직원 근무 기록" sheetId="7" r:id="rId9"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="229">
   <si>
     <t>테이블정의서</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -143,7 +143,8 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>PRIMARY KEY, FOREIGN KEY SALES_RECORD( SALES_NUM )</t>
+    <t>FOREIGN KEY SALES_RECORD( SALES_NUM )</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>* 판매 번호를 통해 해당 판매 정보 조회 가능</t>
@@ -439,6 +440,14 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>WRITER_STORE_NUM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청서 작성자 소속 지점 번호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>APPROVED_DATE</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -460,12 +469,7 @@
   </si>
   <si>
     <t>PRIMARY KEY,
-FOREIGN KEY ITEM_INFO(ITEM_NUM)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRIMARY KEY,
-FOREIGN KEY MANAGED_STORE( STORE_NUM )</t>
+FOREIGN KEY( STORE_NUM )</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -770,10 +774,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>WRITER_STORE_NUM</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>인사 평가 작성자 소속 지점 번호</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -815,11 +815,6 @@
   </si>
   <si>
     <t>Employee</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRIMARY KEY,
-FOREIGN KEY( STORE_NUM )</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1426,6 +1421,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1445,12 +1446,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1474,15 +1469,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1498,12 +1484,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1512,6 +1492,21 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1875,58 +1870,58 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="27" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="29"/>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19" t="s">
+      <c r="H4" s="20"/>
+      <c r="I4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="19"/>
+      <c r="J4" s="21"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="27" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
       <c r="F5" s="29"/>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="19" t="s">
+      <c r="H5" s="20"/>
+      <c r="I5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="19"/>
+      <c r="J5" s="21"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
     </row>
     <row r="7" spans="1:10" ht="18" thickBot="1">
       <c r="A7" s="3" t="s">
@@ -1947,12 +1942,12 @@
       <c r="F7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
     </row>
     <row r="8" spans="1:10" ht="119.45" thickTop="1">
       <c r="A8" s="4">
@@ -1973,12 +1968,12 @@
       <c r="F8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="25"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-    </row>
-    <row r="9" spans="1:10" ht="105.6">
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+    </row>
+    <row r="9" spans="1:10" ht="79.150000000000006">
       <c r="A9" s="7">
         <f>SUM(A8,1)</f>
         <v>2</v>
@@ -1998,12 +1993,12 @@
       <c r="F9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="22"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="24"/>
     </row>
     <row r="10" spans="1:10" ht="26.45">
       <c r="A10" s="7">
@@ -2023,12 +2018,12 @@
         <v>20</v>
       </c>
       <c r="F10" s="9"/>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
     </row>
     <row r="11" spans="1:10" ht="26.45">
       <c r="A11" s="7">
@@ -2459,6 +2454,11 @@
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I4:J4"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="G20:J20"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="G7:J7"/>
@@ -2474,19 +2474,14 @@
     <mergeCell ref="G25:J25"/>
     <mergeCell ref="G26:J26"/>
     <mergeCell ref="G27:J27"/>
-    <mergeCell ref="G28:J28"/>
     <mergeCell ref="G22:J22"/>
     <mergeCell ref="G16:J16"/>
     <mergeCell ref="G11:J11"/>
     <mergeCell ref="G12:J12"/>
     <mergeCell ref="G13:J13"/>
     <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G28:J28"/>
     <mergeCell ref="G21:J21"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="G20:J20"/>
     <mergeCell ref="G35:J35"/>
     <mergeCell ref="G36:J36"/>
     <mergeCell ref="G37:J37"/>
@@ -2547,58 +2542,58 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="27" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="29"/>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="J4" s="19"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="J4" s="21"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="27" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
       <c r="F5" s="29"/>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="19" t="s">
+      <c r="H5" s="20"/>
+      <c r="I5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="19"/>
+      <c r="J5" s="21"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
     </row>
     <row r="7" spans="1:10" ht="18" thickBot="1">
       <c r="A7" s="3" t="s">
@@ -2619,22 +2614,22 @@
       <c r="F7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
     </row>
     <row r="8" spans="1:10" ht="27" customHeight="1" thickTop="1" thickBot="1">
       <c r="A8" s="4">
         <v>1</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>19</v>
@@ -2645,10 +2640,10 @@
       <c r="F8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="38"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="35"/>
     </row>
     <row r="9" spans="1:10" ht="53.45" thickTop="1">
       <c r="A9" s="7">
@@ -2656,10 +2651,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>19</v>
@@ -2670,10 +2665,10 @@
       <c r="F9" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="G9" s="39"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="41"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:10" ht="79.150000000000006">
       <c r="A10" s="7">
@@ -2684,7 +2679,7 @@
         <v>68</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>19</v>
@@ -2706,10 +2701,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>40</v>
@@ -2729,10 +2724,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>19</v>
@@ -2741,10 +2736,10 @@
         <v>20</v>
       </c>
       <c r="F12" s="9"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="7">
@@ -3247,58 +3242,58 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="27" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="29"/>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="J4" s="19"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="J4" s="21"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="27" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
       <c r="F5" s="29"/>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="19" t="s">
+      <c r="H5" s="20"/>
+      <c r="I5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="19"/>
+      <c r="J5" s="21"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
     </row>
     <row r="7" spans="1:10" ht="18" thickBot="1">
       <c r="A7" s="3" t="s">
@@ -3319,22 +3314,22 @@
       <c r="F7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
     </row>
     <row r="8" spans="1:10" ht="27" customHeight="1" thickTop="1" thickBot="1">
       <c r="A8" s="4">
         <v>1</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>19</v>
@@ -3345,10 +3340,10 @@
       <c r="F8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="38"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="35"/>
     </row>
     <row r="9" spans="1:10" ht="53.45" thickTop="1">
       <c r="A9" s="7">
@@ -3356,10 +3351,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>19</v>
@@ -3370,10 +3365,10 @@
       <c r="F9" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="22"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="24"/>
     </row>
     <row r="10" spans="1:10" ht="79.150000000000006">
       <c r="A10" s="7">
@@ -3384,7 +3379,7 @@
         <v>68</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>19</v>
@@ -3406,10 +3401,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>40</v>
@@ -3429,10 +3424,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>19</v>
@@ -3443,10 +3438,10 @@
       <c r="F12" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
     </row>
     <row r="13" spans="1:10" ht="79.150000000000006">
       <c r="A13" s="7">
@@ -3454,10 +3449,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>19</v>
@@ -3959,58 +3954,58 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="27" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="29"/>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="J4" s="19"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="J4" s="21"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="27" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
       <c r="F5" s="29"/>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="19" t="s">
+      <c r="H5" s="20"/>
+      <c r="I5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="19"/>
+      <c r="J5" s="21"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
     </row>
     <row r="7" spans="1:10" ht="18" thickBot="1">
       <c r="A7" s="3" t="s">
@@ -4031,22 +4026,22 @@
       <c r="F7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
     </row>
     <row r="8" spans="1:10" ht="27.6" thickTop="1" thickBot="1">
       <c r="A8" s="4">
         <v>1</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>19</v>
@@ -4057,10 +4052,10 @@
       <c r="F8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="43"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="46"/>
     </row>
     <row r="9" spans="1:10" ht="53.45" thickTop="1">
       <c r="A9" s="7">
@@ -4068,10 +4063,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>19</v>
@@ -4082,10 +4077,10 @@
       <c r="F9" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="G9" s="44"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="46"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="41"/>
     </row>
     <row r="10" spans="1:10" ht="79.900000000000006" thickBot="1">
       <c r="A10" s="7">
@@ -4096,7 +4091,7 @@
         <v>68</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>19</v>
@@ -4105,7 +4100,7 @@
         <v>20</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G10" s="31"/>
       <c r="H10" s="32"/>
@@ -4121,7 +4116,7 @@
         <v>95</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>19</v>
@@ -4132,12 +4127,12 @@
       <c r="F11" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="G11" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="36"/>
+      <c r="G11" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="44"/>
     </row>
     <row r="12" spans="1:10" ht="79.150000000000006">
       <c r="A12" s="7">
@@ -4145,7 +4140,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>180</v>
+        <v>98</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>181</v>
@@ -4157,7 +4152,7 @@
         <v>20</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G12" s="31"/>
       <c r="H12" s="32"/>
@@ -4182,10 +4177,10 @@
         <v>20</v>
       </c>
       <c r="F13" s="13"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
     </row>
     <row r="14" spans="1:10" ht="26.45">
       <c r="A14" s="7">
@@ -4205,12 +4200,12 @@
         <v>20</v>
       </c>
       <c r="F14" s="10"/>
-      <c r="G14" s="34" t="s">
+      <c r="G14" s="42" t="s">
         <v>186</v>
       </c>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="36"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="44"/>
     </row>
     <row r="15" spans="1:10" ht="26.45">
       <c r="A15" s="7">
@@ -4218,7 +4213,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>187</v>
@@ -4605,6 +4600,14 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="G30:J30"/>
     <mergeCell ref="G31:J31"/>
     <mergeCell ref="G25:J25"/>
     <mergeCell ref="G15:J15"/>
@@ -4612,12 +4615,6 @@
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="G18:J18"/>
     <mergeCell ref="G23:J23"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="G24:J24"/>
     <mergeCell ref="G40:J40"/>
     <mergeCell ref="G32:J32"/>
     <mergeCell ref="G33:J33"/>
@@ -4625,31 +4622,29 @@
     <mergeCell ref="G35:J35"/>
     <mergeCell ref="G36:J36"/>
     <mergeCell ref="G37:J37"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="G11:J11"/>
     <mergeCell ref="G19:J19"/>
     <mergeCell ref="G20:J20"/>
     <mergeCell ref="G21:J21"/>
     <mergeCell ref="G22:J22"/>
     <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="G9:J9"/>
     <mergeCell ref="G12:J12"/>
     <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G24:J24"/>
     <mergeCell ref="G13:J13"/>
+    <mergeCell ref="B1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:J6"/>
-    <mergeCell ref="B1:I2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="G9:J9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4705,58 +4700,58 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="27" t="s">
         <v>190</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="29"/>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="J4" s="19"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="J4" s="21"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="27" t="s">
         <v>191</v>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
       <c r="F5" s="29"/>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="19" t="s">
+      <c r="H5" s="20"/>
+      <c r="I5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="19"/>
+      <c r="J5" s="21"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
     </row>
     <row r="7" spans="1:10" ht="18" thickBot="1">
       <c r="A7" s="3" t="s">
@@ -4777,22 +4772,22 @@
       <c r="F7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
     </row>
     <row r="8" spans="1:10" ht="27" customHeight="1" thickTop="1">
       <c r="A8" s="4">
         <v>1</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>19</v>
@@ -4801,12 +4796,12 @@
         <v>20</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="22"/>
+        <v>105</v>
+      </c>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="24"/>
     </row>
     <row r="9" spans="1:10" ht="79.150000000000006">
       <c r="A9" s="7">
@@ -4817,7 +4812,7 @@
         <v>68</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>19</v>
@@ -4826,7 +4821,7 @@
         <v>20</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>192</v>
+        <v>105</v>
       </c>
       <c r="G9" s="31"/>
       <c r="H9" s="32"/>
@@ -4839,20 +4834,20 @@
         <v>3</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>194</v>
-      </c>
       <c r="D10" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>20</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
@@ -4864,10 +4859,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>196</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>197</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>37</v>
@@ -4876,10 +4871,10 @@
         <v>20</v>
       </c>
       <c r="F11" s="9"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
     </row>
     <row r="12" spans="1:10" ht="26.45">
       <c r="A12" s="7">
@@ -4887,10 +4882,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>198</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>199</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>37</v>
@@ -4900,7 +4895,7 @@
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
@@ -4912,10 +4907,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>201</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>202</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>43</v>
@@ -4925,7 +4920,7 @@
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
@@ -4937,10 +4932,10 @@
         <v>7</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>204</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>205</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>40</v>
@@ -4960,10 +4955,10 @@
         <v>8</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>206</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>207</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>47</v>
@@ -4973,7 +4968,7 @@
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
@@ -4985,10 +4980,10 @@
         <v>9</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>209</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>210</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>40</v>
@@ -5008,10 +5003,10 @@
         <v>10</v>
       </c>
       <c r="B17" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>211</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>212</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>19</v>
@@ -5021,7 +5016,7 @@
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
@@ -5033,10 +5028,10 @@
         <v>11</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>214</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>215</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>19</v>
@@ -5046,7 +5041,7 @@
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
@@ -5407,7 +5402,7 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W29" sqref="W29"/>
+      <selection activeCell="I5" sqref="I5:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.45"/>
@@ -5451,58 +5446,58 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="29"/>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19" t="s">
+      <c r="H4" s="20"/>
+      <c r="I4" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="J4" s="21"/>
+    </row>
+    <row r="5" spans="1:10" ht="16.5">
+      <c r="A5" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="27" t="s">
         <v>218</v>
-      </c>
-      <c r="J4" s="19"/>
-    </row>
-    <row r="5" spans="1:10" ht="16.5">
-      <c r="A5" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="27" t="s">
-        <v>219</v>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
       <c r="F5" s="29"/>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="19" t="s">
+      <c r="H5" s="20"/>
+      <c r="I5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="19"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="18" t="s">
+      <c r="J5" s="21"/>
+    </row>
+    <row r="6" spans="1:10" ht="16.5">
+      <c r="A6" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
     </row>
     <row r="7" spans="1:10" ht="18" thickBot="1">
       <c r="A7" s="3" t="s">
@@ -5523,12 +5518,12 @@
       <c r="F7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
     </row>
     <row r="8" spans="1:10" ht="27" thickTop="1">
       <c r="A8" s="4">
@@ -5549,10 +5544,10 @@
       <c r="F8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="22"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="24"/>
     </row>
     <row r="9" spans="1:10" ht="39.6">
       <c r="A9" s="7">
@@ -5560,20 +5555,20 @@
         <v>2</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>221</v>
-      </c>
       <c r="D9" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
@@ -5585,10 +5580,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>223</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>224</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>37</v>
@@ -5597,12 +5592,12 @@
         <v>20</v>
       </c>
       <c r="F10" s="9"/>
-      <c r="G10" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
+      <c r="G10" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
     </row>
     <row r="11" spans="1:10" ht="26.45">
       <c r="A11" s="7">
@@ -5610,10 +5605,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>226</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>227</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>37</v>
@@ -5623,7 +5618,7 @@
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
@@ -5635,10 +5630,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>228</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>229</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>43</v>
@@ -5648,7 +5643,7 @@
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
@@ -6131,58 +6126,58 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="27" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="29"/>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19" t="s">
+      <c r="H4" s="20"/>
+      <c r="I4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="19"/>
+      <c r="J4" s="21"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="27" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
       <c r="F5" s="29"/>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="19" t="s">
+      <c r="H5" s="20"/>
+      <c r="I5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="19"/>
+      <c r="J5" s="21"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
     </row>
     <row r="7" spans="1:10" ht="18" thickBot="1">
       <c r="A7" s="3" t="s">
@@ -6203,12 +6198,12 @@
       <c r="F7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
     </row>
     <row r="8" spans="1:10" ht="27" thickTop="1">
       <c r="A8" s="4">
@@ -6229,10 +6224,10 @@
       <c r="F8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="22"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="24"/>
     </row>
     <row r="9" spans="1:10" ht="26.45">
       <c r="A9" s="7">
@@ -6274,10 +6269,10 @@
         <v>20</v>
       </c>
       <c r="F10" s="9"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
     </row>
     <row r="11" spans="1:10" ht="26.45">
       <c r="A11" s="7">
@@ -6826,58 +6821,58 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="27" t="s">
         <v>55</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="29"/>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19" t="s">
+      <c r="H4" s="20"/>
+      <c r="I4" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="J4" s="19"/>
+      <c r="J4" s="21"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="27" t="s">
         <v>57</v>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
       <c r="F5" s="29"/>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="19" t="s">
+      <c r="H5" s="20"/>
+      <c r="I5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="19"/>
+      <c r="J5" s="21"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
     </row>
     <row r="7" spans="1:10" ht="18" thickBot="1">
       <c r="A7" s="3" t="s">
@@ -6898,12 +6893,12 @@
       <c r="F7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
     </row>
     <row r="8" spans="1:10" ht="106.15" thickTop="1">
       <c r="A8" s="4">
@@ -6924,10 +6919,10 @@
       <c r="F8" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="22"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="24"/>
     </row>
     <row r="9" spans="1:10" ht="26.45">
       <c r="A9" s="7">
@@ -6971,12 +6966,12 @@
         <v>20</v>
       </c>
       <c r="F10" s="9"/>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="7">
@@ -7440,7 +7435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DFB0DFE-D17B-4A38-A801-C4E0875195B3}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5:J5"/>
     </sheetView>
   </sheetViews>
@@ -7485,58 +7480,58 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="27" t="s">
         <v>66</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="29"/>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19" t="s">
+      <c r="H4" s="20"/>
+      <c r="I4" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="J4" s="19"/>
+      <c r="J4" s="21"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="27" t="s">
         <v>67</v>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
       <c r="F5" s="29"/>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="19" t="s">
+      <c r="H5" s="20"/>
+      <c r="I5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="19"/>
+      <c r="J5" s="21"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
     </row>
     <row r="7" spans="1:10" ht="18" thickBot="1">
       <c r="A7" s="3" t="s">
@@ -7557,12 +7552,12 @@
       <c r="F7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
     </row>
     <row r="8" spans="1:10" ht="27" thickTop="1">
       <c r="A8" s="4">
@@ -7583,10 +7578,10 @@
       <c r="F8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="22"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="24"/>
     </row>
     <row r="9" spans="1:10" ht="79.150000000000006">
       <c r="A9" s="7">
@@ -7655,10 +7650,10 @@
       <c r="F11" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="7">
@@ -8180,58 +8175,58 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="27" t="s">
         <v>81</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="29"/>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19" t="s">
+      <c r="H4" s="20"/>
+      <c r="I4" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="J4" s="19"/>
+      <c r="J4" s="21"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="27" t="s">
         <v>82</v>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
       <c r="F5" s="29"/>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="19" t="s">
+      <c r="H5" s="20"/>
+      <c r="I5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="19"/>
+      <c r="J5" s="21"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
     </row>
     <row r="7" spans="1:10" ht="18" thickBot="1">
       <c r="A7" s="3" t="s">
@@ -8252,12 +8247,12 @@
       <c r="F7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
     </row>
     <row r="8" spans="1:10" ht="27" thickTop="1">
       <c r="A8" s="4">
@@ -8278,10 +8273,10 @@
       <c r="F8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="22"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="24"/>
     </row>
     <row r="9" spans="1:10" ht="79.150000000000006">
       <c r="A9" s="7">
@@ -8351,10 +8346,10 @@
         <v>20</v>
       </c>
       <c r="F11" s="9"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
     </row>
     <row r="12" spans="1:10" ht="26.45">
       <c r="A12" s="7">
@@ -8868,58 +8863,58 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="27" t="s">
         <v>91</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="29"/>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19" t="s">
+      <c r="H4" s="20"/>
+      <c r="I4" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="J4" s="19"/>
+      <c r="J4" s="21"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="27" t="s">
         <v>92</v>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
       <c r="F5" s="29"/>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="19" t="s">
+      <c r="H5" s="20"/>
+      <c r="I5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="19"/>
+      <c r="J5" s="21"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
     </row>
     <row r="7" spans="1:10" ht="18" thickBot="1">
       <c r="A7" s="3" t="s">
@@ -8940,12 +8935,12 @@
       <c r="F7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
     </row>
     <row r="8" spans="1:10" ht="27" thickTop="1">
       <c r="A8" s="4">
@@ -8966,10 +8961,10 @@
       <c r="F8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="22"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="24"/>
     </row>
     <row r="9" spans="1:10" ht="79.150000000000006">
       <c r="A9" s="7">
@@ -9039,10 +9034,10 @@
         <v>20</v>
       </c>
       <c r="F11" s="9"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
     </row>
     <row r="12" spans="1:10" ht="26.45">
       <c r="A12" s="7">
@@ -9092,7 +9087,7 @@
       <c r="I13" s="16"/>
       <c r="J13" s="17"/>
     </row>
-    <row r="14" spans="1:10" ht="41.25" customHeight="1">
+    <row r="14" spans="1:10" ht="39.6">
       <c r="A14" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -9104,33 +9099,43 @@
         <v>99</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="9" t="b">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="16" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
       <c r="J14" s="17"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" ht="26.45">
       <c r="A15" s="7">
-        <f>SUM(A14,1)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
+      <c r="B15" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="9" t="b">
+        <v>1</v>
+      </c>
       <c r="F15" s="9"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="36"/>
+      <c r="G15" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="17"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="7">
@@ -9576,58 +9581,58 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="27" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="29"/>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19" t="s">
+      <c r="H4" s="20"/>
+      <c r="I4" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="J4" s="19"/>
+      <c r="J4" s="21"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="27" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
       <c r="F5" s="29"/>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="19" t="s">
+      <c r="H5" s="20"/>
+      <c r="I5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="19"/>
+      <c r="J5" s="21"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
     </row>
     <row r="7" spans="1:10" ht="18" thickBot="1">
       <c r="A7" s="3" t="s">
@@ -9648,12 +9653,12 @@
       <c r="F7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
     </row>
     <row r="8" spans="1:10" ht="27" customHeight="1" thickTop="1">
       <c r="A8" s="4">
@@ -9672,14 +9677,14 @@
         <v>20</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="22"/>
-    </row>
-    <row r="9" spans="1:10" ht="105.6">
+        <v>34</v>
+      </c>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="24"/>
+    </row>
+    <row r="9" spans="1:10" ht="79.150000000000006">
       <c r="A9" s="7">
         <f>SUM(A8,1)</f>
         <v>2</v>
@@ -9697,7 +9702,7 @@
         <v>20</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G9" s="31"/>
       <c r="H9" s="32"/>
@@ -9710,10 +9715,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>19</v>
@@ -9733,10 +9738,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>19</v>
@@ -9745,10 +9750,10 @@
         <v>20</v>
       </c>
       <c r="F11" s="9"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="7">
@@ -9756,10 +9761,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>19</v>
@@ -9769,7 +9774,7 @@
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="16" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
@@ -9781,10 +9786,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>47</v>
@@ -9794,7 +9799,7 @@
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
@@ -9806,20 +9811,20 @@
         <v>7</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>20</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
@@ -9831,10 +9836,10 @@
         <v>8</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>37</v>
@@ -9844,7 +9849,7 @@
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
@@ -10254,10 +10259,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.45"/>
-  <cols>
-    <col min="26" max="26" width="0" hidden="1" customWidth="1"/>
-    <col min="43" max="43" width="0" hidden="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.45" customHeight="1">
       <c r="A1" s="1"/>
@@ -10298,58 +10299,58 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="27" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="29"/>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19" t="s">
+      <c r="H4" s="20"/>
+      <c r="I4" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="J4" s="19"/>
+      <c r="J4" s="21"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
       <c r="F5" s="29"/>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="19" t="s">
+      <c r="H5" s="20"/>
+      <c r="I5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="19"/>
+      <c r="J5" s="21"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
     </row>
     <row r="7" spans="1:10" ht="18" thickBot="1">
       <c r="A7" s="3" t="s">
@@ -10370,12 +10371,12 @@
       <c r="F7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
     </row>
     <row r="8" spans="1:10" ht="27" thickTop="1">
       <c r="A8" s="4">
@@ -10396,10 +10397,10 @@
       <c r="F8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="22"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="24"/>
     </row>
     <row r="9" spans="1:10" ht="26.45">
       <c r="A9" s="7">
@@ -10407,13 +10408,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>20</v>
@@ -10430,22 +10431,22 @@
         <v>3</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>20</v>
       </c>
       <c r="F10" s="9"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
     </row>
     <row r="11" spans="1:10" ht="26.45">
       <c r="A11" s="7">
@@ -10453,10 +10454,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>19</v>
@@ -10476,10 +10477,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>40</v>
@@ -10499,10 +10500,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>40</v>
@@ -10512,7 +10513,7 @@
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
@@ -10980,58 +10981,58 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="27" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="29"/>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="J4" s="19"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="J4" s="21"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="27" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
       <c r="F5" s="29"/>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="19" t="s">
+      <c r="H5" s="20"/>
+      <c r="I5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="19"/>
+      <c r="J5" s="21"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
     </row>
     <row r="7" spans="1:10" ht="18" thickBot="1">
       <c r="A7" s="3" t="s">
@@ -11052,22 +11053,22 @@
       <c r="F7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
     </row>
     <row r="8" spans="1:10" ht="27" customHeight="1" thickTop="1" thickBot="1">
       <c r="A8" s="4">
         <v>1</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>19</v>
@@ -11078,10 +11079,10 @@
       <c r="F8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="38"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="35"/>
     </row>
     <row r="9" spans="1:10" ht="53.45" thickTop="1">
       <c r="A9" s="7">
@@ -11089,10 +11090,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>19</v>
@@ -11103,10 +11104,10 @@
       <c r="F9" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="G9" s="39"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="41"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:10" ht="79.150000000000006">
       <c r="A10" s="7">
@@ -11117,7 +11118,7 @@
         <v>68</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>19</v>
@@ -11139,17 +11140,15 @@
         <v>4</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="9" t="b">
-        <v>1</v>
-      </c>
+      <c r="E11" s="9"/>
       <c r="F11" s="10"/>
       <c r="G11" s="31"/>
       <c r="H11" s="32"/>
@@ -11162,22 +11161,20 @@
         <v>5</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="9" t="b">
-        <v>1</v>
-      </c>
+      <c r="E12" s="9"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
     </row>
     <row r="13" spans="1:10" ht="26.45">
       <c r="A13" s="7">
@@ -11185,10 +11182,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>47</v>
@@ -11198,7 +11195,7 @@
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>

--- a/documents/테이블 정의서.xlsx
+++ b/documents/테이블 정의서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26712"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\siat_final_project\TJSManager\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\clone\TJSManager\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE7A6BC9-B630-4A51-974A-B7E445BB0F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1F3C665-1A6D-44B3-B702-49B0E94C8F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" firstSheet="13" activeTab="13" xr2:uid="{23F431DE-E5DE-4A76-B807-59BB60D14234}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" firstSheet="8" activeTab="8" xr2:uid="{23F431DE-E5DE-4A76-B807-59BB60D14234}"/>
   </bookViews>
   <sheets>
     <sheet name="멤버쉽 고객 구매 이력" sheetId="10" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="물품별 구매자 기록" sheetId="8" r:id="rId3"/>
     <sheet name="판매 이력" sheetId="5" r:id="rId4"/>
     <sheet name="입고 신청 이력" sheetId="4" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="14" r:id="rId6"/>
+    <sheet name="승인대기 입고 신청 이력" sheetId="14" r:id="rId6"/>
     <sheet name="재고 현황" sheetId="3" r:id="rId7"/>
     <sheet name="모든 상품 기본 정보" sheetId="2" r:id="rId8"/>
     <sheet name="직원 근무 기록" sheetId="7" r:id="rId9"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="230">
   <si>
     <t>테이블정의서</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -143,8 +143,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>FOREIGN KEY SALES_RECORD( SALES_NUM )</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>PRIMARY KEY, FOREIGN KEY SALES_RECORD( SALES_NUM )</t>
   </si>
   <si>
     <t>* 판매 번호를 통해 해당 판매 정보 조회 가능</t>
@@ -440,381 +439,387 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>APPROVED_DATE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>점장 승인 일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 승인하지 않았으면 NULL, 승인하면 승인한 날짜 저장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM_STOCK</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_stock</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY,
+FOREIGN KEY ITEM_INFO(ITEM_NUM)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY,
+FOREIGN KEY MANAGED_STORE( STORE_NUM )</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IN_CNT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>입고량</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OUT_CNT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>출고량</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DROP_CNT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>미판매량</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 유통기한이 지났거나 분실 등의 이유로 판매하지 못한 상품의 개수</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>진열 위치</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 어떠한 이유로 진열할 수 없는 경우도 존재</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SALE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>할인율</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER(2)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 할인을 안 하는 경우에는 0으로 표시</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVENT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>행사 여부</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 행사 이름을 문자열 그대로 저장("1+1", "2+1" 등)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM_INFO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_info</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>물품명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(100)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>물품 분류</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(60)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONSUMER_PRICE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>소비자판매가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRODUCT_DATE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>제조일자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXPIRATION_DATE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>유통기한</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 유통기한이 없는 제품도 존재</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMPLOYEE_WORK_LOG</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HRM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Employee_work_log</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORK_LOG_NUM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>근무 일지 번호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMP_NUM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원 번호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>소속 지점 번호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>START_WORK</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>출근 시각</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>END_WORK</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>퇴근 시각</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DISCRIPTION</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>근무 상태</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 특별한 일 없이 출퇴근 했다면 "근무"
+* 연·월차 / 반차 사용 시 "휴가"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMPLOYEE_PAY_RECORD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Employee_pay_record</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RECORD_NUM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>기록 번호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAY_DATE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>급여 지급일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAY_VALUE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>지급 금액</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMPLOYEE_INFO_UPDATED</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Employee_info_updated</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_NUM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정 기록 번호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정 대상의 직원 번호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정 대상 소속 지점 번호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATED_DATE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATER_NUM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정한 직원 번호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATER_STORE_NUM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정한 직원 소속 지점 번호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMPLOYEE_PERFORMANCE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Employee_performance</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PERFORMANCE_NUM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>인사 평가 번호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>인사 평가 대상 직원 번호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOREIGN KEY MANAGED_STORE( STORE_NUN )</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>인사 평가 작성자 번호(직원 번호)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 일반 직원은 작성 불가능</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>WRITER_STORE_NUM</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>신청서 작성자 소속 지점 번호</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>APPROVED_DATE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>점장 승인 일</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 승인하지 않았으면 NULL, 승인하면 승인한 날짜 저장</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITEM_STOCK</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item_stock</t>
+    <t>인사 평가 작성자 소속 지점 번호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATED_DATE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TYPE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>평가 분류</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>* "주간" / "월간" / "연간"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>평가 내용</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(6000)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 한글(3바이트) 기준으로 2000자까지 작성 가능</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>employee</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Employee</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>PRIMARY KEY,
 FOREIGN KEY( STORE_NUM )</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>IN_CNT</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>입고량</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>OUT_CNT</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>출고량</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DROP_CNT</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>미판매량</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 유통기한이 지났거나 분실 등의 이유로 판매하지 못한 상품의 개수</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOT</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>진열 위치</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 어떠한 이유로 진열할 수 없는 경우도 존재</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SALE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>할인율</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER(2)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 할인을 안 하는 경우에는 0으로 표시</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVENT</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>행사 여부</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 행사 이름을 문자열 그대로 저장("1+1", "2+1" 등)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITEM_INFO</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item_info</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>물품명</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(100)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>물품 분류</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(60)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONSUMER_PRICE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>소비자판매가</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRODUCT_DATE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>제조일자</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXPIRATION_DATE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>유통기한</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 유통기한이 없는 제품도 존재</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EMPLOYEE_WORK_LOG</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>HRM</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Employee_work_log</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>WORK_LOG_NUM</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>근무 일지 번호</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EMP_NUM</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>직원 번호</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>소속 지점 번호</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>START_WORK</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>출근 시각</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>END_WORK</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>퇴근 시각</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DISCRIPTION</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>근무 상태</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 특별한 일 없이 출퇴근 했다면 "근무"
-* 연·월차 / 반차 사용 시 "휴가"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EMPLOYEE_PAY_RECORD</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Employee_pay_record</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RECORD_NUM</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>기록 번호</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAY_DATE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>급여 지급일</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAY_VALUE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>지급 금액</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EMPLOYEE_INFO_UPDATED</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Employee_info_updated</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE_NUM</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정 기록 번호</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정 대상의 직원 번호</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정 대상 소속 지점 번호</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATED_DATE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정일</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATER_NUM</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정한 직원 번호</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATER_STORE_NUM</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정한 직원 소속 지점 번호</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EMPLOYEE_PERFORMANCE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Employee_performance</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PERFORMANCE_NUM</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>인사 평가 번호</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>인사 평가 대상 직원 번호</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FOREIGN KEY MANAGED_STORE( STORE_NUN )</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>인사 평가 작성자 번호(직원 번호)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 일반 직원은 작성 불가능</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>인사 평가 작성자 소속 지점 번호</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATED_DATE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성일</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TYPE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>평가 분류</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>* "주간" / "월간" / "연간"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>평가 내용</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(6000)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 한글(3바이트) 기준으로 2000자까지 작성 가능</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>employee</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Employee</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1421,12 +1426,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1446,6 +1445,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1469,6 +1474,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1484,6 +1498,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1492,21 +1512,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1825,8 +1830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE5BA791-22E2-45EB-9919-50DE9D7B91D9}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:J5"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.45"/>
@@ -1870,58 +1875,58 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="20"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="27" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="29"/>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21" t="s">
+      <c r="H4" s="18"/>
+      <c r="I4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="21"/>
+      <c r="J4" s="19"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="27" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
       <c r="F5" s="29"/>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="21" t="s">
+      <c r="H5" s="18"/>
+      <c r="I5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="21"/>
+      <c r="J5" s="19"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
     </row>
     <row r="7" spans="1:10" ht="18" thickBot="1">
       <c r="A7" s="3" t="s">
@@ -1942,12 +1947,12 @@
       <c r="F7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
     </row>
     <row r="8" spans="1:10" ht="119.45" thickTop="1">
       <c r="A8" s="4">
@@ -1968,12 +1973,12 @@
       <c r="F8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-    </row>
-    <row r="9" spans="1:10" ht="79.150000000000006">
+      <c r="G8" s="25"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+    </row>
+    <row r="9" spans="1:10" ht="105.6">
       <c r="A9" s="7">
         <f>SUM(A8,1)</f>
         <v>2</v>
@@ -1993,12 +1998,12 @@
       <c r="F9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="24"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="22"/>
     </row>
     <row r="10" spans="1:10" ht="26.45">
       <c r="A10" s="7">
@@ -2018,12 +2023,12 @@
         <v>20</v>
       </c>
       <c r="F10" s="9"/>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
     </row>
     <row r="11" spans="1:10" ht="26.45">
       <c r="A11" s="7">
@@ -2454,11 +2459,6 @@
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I4:J4"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="G20:J20"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="G7:J7"/>
@@ -2474,14 +2474,19 @@
     <mergeCell ref="G25:J25"/>
     <mergeCell ref="G26:J26"/>
     <mergeCell ref="G27:J27"/>
+    <mergeCell ref="G28:J28"/>
     <mergeCell ref="G22:J22"/>
     <mergeCell ref="G16:J16"/>
     <mergeCell ref="G11:J11"/>
     <mergeCell ref="G12:J12"/>
     <mergeCell ref="G13:J13"/>
     <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G28:J28"/>
     <mergeCell ref="G21:J21"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="G20:J20"/>
     <mergeCell ref="G35:J35"/>
     <mergeCell ref="G36:J36"/>
     <mergeCell ref="G37:J37"/>
@@ -2498,7 +2503,7 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:J5"/>
+      <selection activeCell="C4" sqref="C4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.45"/>
@@ -2542,58 +2547,58 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="20"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="29"/>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="J4" s="21"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="J4" s="19"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
       <c r="F5" s="29"/>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="21" t="s">
+      <c r="H5" s="18"/>
+      <c r="I5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="21"/>
+      <c r="J5" s="19"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
     </row>
     <row r="7" spans="1:10" ht="18" thickBot="1">
       <c r="A7" s="3" t="s">
@@ -2614,22 +2619,22 @@
       <c r="F7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
     </row>
     <row r="8" spans="1:10" ht="27" customHeight="1" thickTop="1" thickBot="1">
       <c r="A8" s="4">
         <v>1</v>
       </c>
       <c r="B8" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>155</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>156</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>19</v>
@@ -2640,10 +2645,10 @@
       <c r="F8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="35"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="38"/>
     </row>
     <row r="9" spans="1:10" ht="53.45" thickTop="1">
       <c r="A9" s="7">
@@ -2651,10 +2656,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>143</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>144</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>19</v>
@@ -2665,10 +2670,10 @@
       <c r="F9" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="G9" s="36"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="38"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="41"/>
     </row>
     <row r="10" spans="1:10" ht="79.150000000000006">
       <c r="A10" s="7">
@@ -2679,7 +2684,7 @@
         <v>68</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>19</v>
@@ -2701,10 +2706,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>157</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>158</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>40</v>
@@ -2724,10 +2729,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>159</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>160</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>19</v>
@@ -2736,10 +2741,10 @@
         <v>20</v>
       </c>
       <c r="F12" s="9"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="7">
@@ -3198,7 +3203,7 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:J5"/>
+      <selection activeCell="C4" sqref="C4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.45"/>
@@ -3242,58 +3247,58 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="20"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="29"/>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="J4" s="21"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="J4" s="19"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
       <c r="F5" s="29"/>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="21" t="s">
+      <c r="H5" s="18"/>
+      <c r="I5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="21"/>
+      <c r="J5" s="19"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
     </row>
     <row r="7" spans="1:10" ht="18" thickBot="1">
       <c r="A7" s="3" t="s">
@@ -3314,22 +3319,22 @@
       <c r="F7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
     </row>
     <row r="8" spans="1:10" ht="27" customHeight="1" thickTop="1" thickBot="1">
       <c r="A8" s="4">
         <v>1</v>
       </c>
       <c r="B8" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>163</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>164</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>19</v>
@@ -3340,10 +3345,10 @@
       <c r="F8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="35"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="38"/>
     </row>
     <row r="9" spans="1:10" ht="53.45" thickTop="1">
       <c r="A9" s="7">
@@ -3351,10 +3356,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>19</v>
@@ -3365,10 +3370,10 @@
       <c r="F9" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="24"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="22"/>
     </row>
     <row r="10" spans="1:10" ht="79.150000000000006">
       <c r="A10" s="7">
@@ -3379,7 +3384,7 @@
         <v>68</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>19</v>
@@ -3401,10 +3406,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>167</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>168</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>40</v>
@@ -3424,10 +3429,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>169</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>170</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>19</v>
@@ -3438,10 +3443,10 @@
       <c r="F12" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="G12" s="25"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
     </row>
     <row r="13" spans="1:10" ht="79.150000000000006">
       <c r="A13" s="7">
@@ -3449,10 +3454,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>171</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>172</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>19</v>
@@ -3910,7 +3915,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:J5"/>
+      <selection activeCell="C4" sqref="C4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.45"/>
@@ -3954,58 +3959,58 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="20"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="29"/>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="J4" s="21"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="J4" s="19"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
       <c r="F5" s="29"/>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="21" t="s">
+      <c r="H5" s="18"/>
+      <c r="I5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="21"/>
+      <c r="J5" s="19"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
     </row>
     <row r="7" spans="1:10" ht="18" thickBot="1">
       <c r="A7" s="3" t="s">
@@ -4026,22 +4031,22 @@
       <c r="F7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
     </row>
     <row r="8" spans="1:10" ht="27.6" thickTop="1" thickBot="1">
       <c r="A8" s="4">
         <v>1</v>
       </c>
       <c r="B8" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>175</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>176</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>19</v>
@@ -4052,10 +4057,10 @@
       <c r="F8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="46"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="43"/>
     </row>
     <row r="9" spans="1:10" ht="53.45" thickTop="1">
       <c r="A9" s="7">
@@ -4063,10 +4068,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>19</v>
@@ -4077,10 +4082,10 @@
       <c r="F9" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="G9" s="39"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="41"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="46"/>
     </row>
     <row r="10" spans="1:10" ht="79.900000000000006" thickBot="1">
       <c r="A10" s="7">
@@ -4091,7 +4096,7 @@
         <v>68</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>19</v>
@@ -4100,7 +4105,7 @@
         <v>20</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G10" s="31"/>
       <c r="H10" s="32"/>
@@ -4116,7 +4121,7 @@
         <v>95</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>19</v>
@@ -4127,12 +4132,12 @@
       <c r="F11" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="G11" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="44"/>
+      <c r="G11" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="36"/>
     </row>
     <row r="12" spans="1:10" ht="79.150000000000006">
       <c r="A12" s="7">
@@ -4140,7 +4145,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>98</v>
+        <v>180</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>181</v>
@@ -4152,7 +4157,7 @@
         <v>20</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G12" s="31"/>
       <c r="H12" s="32"/>
@@ -4177,10 +4182,10 @@
         <v>20</v>
       </c>
       <c r="F13" s="13"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
     </row>
     <row r="14" spans="1:10" ht="26.45">
       <c r="A14" s="7">
@@ -4200,12 +4205,12 @@
         <v>20</v>
       </c>
       <c r="F14" s="10"/>
-      <c r="G14" s="42" t="s">
+      <c r="G14" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="44"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="36"/>
     </row>
     <row r="15" spans="1:10" ht="26.45">
       <c r="A15" s="7">
@@ -4213,7 +4218,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>187</v>
@@ -4600,14 +4605,6 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="G30:J30"/>
     <mergeCell ref="G31:J31"/>
     <mergeCell ref="G25:J25"/>
     <mergeCell ref="G15:J15"/>
@@ -4615,6 +4612,12 @@
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="G18:J18"/>
     <mergeCell ref="G23:J23"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="G24:J24"/>
     <mergeCell ref="G40:J40"/>
     <mergeCell ref="G32:J32"/>
     <mergeCell ref="G33:J33"/>
@@ -4622,29 +4625,31 @@
     <mergeCell ref="G35:J35"/>
     <mergeCell ref="G36:J36"/>
     <mergeCell ref="G37:J37"/>
-    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="G19:J19"/>
     <mergeCell ref="G20:J20"/>
     <mergeCell ref="G21:J21"/>
     <mergeCell ref="G22:J22"/>
     <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="G9:J9"/>
     <mergeCell ref="G12:J12"/>
     <mergeCell ref="G10:J10"/>
-    <mergeCell ref="G24:J24"/>
     <mergeCell ref="G13:J13"/>
-    <mergeCell ref="B1:I2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:J6"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="B1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4656,7 +4661,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:J5"/>
+      <selection activeCell="I4" sqref="I4:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.45"/>
@@ -4700,58 +4705,58 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="20"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="27" t="s">
         <v>190</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="29"/>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="J4" s="21"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="J4" s="19"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="27" t="s">
         <v>191</v>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
       <c r="F5" s="29"/>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="21" t="s">
+      <c r="H5" s="18"/>
+      <c r="I5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="21"/>
+      <c r="J5" s="19"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
     </row>
     <row r="7" spans="1:10" ht="18" thickBot="1">
       <c r="A7" s="3" t="s">
@@ -4772,22 +4777,22 @@
       <c r="F7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
     </row>
     <row r="8" spans="1:10" ht="27" customHeight="1" thickTop="1">
       <c r="A8" s="4">
         <v>1</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>143</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>144</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>19</v>
@@ -4796,12 +4801,12 @@
         <v>20</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="24"/>
+        <v>192</v>
+      </c>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="22"/>
     </row>
     <row r="9" spans="1:10" ht="79.150000000000006">
       <c r="A9" s="7">
@@ -4812,7 +4817,7 @@
         <v>68</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>19</v>
@@ -4821,7 +4826,7 @@
         <v>20</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>105</v>
+        <v>192</v>
       </c>
       <c r="G9" s="31"/>
       <c r="H9" s="32"/>
@@ -4834,20 +4839,20 @@
         <v>3</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>20</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
@@ -4859,10 +4864,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>37</v>
@@ -4871,10 +4876,10 @@
         <v>20</v>
       </c>
       <c r="F11" s="9"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
     </row>
     <row r="12" spans="1:10" ht="26.45">
       <c r="A12" s="7">
@@ -4882,10 +4887,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>37</v>
@@ -4895,7 +4900,7 @@
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
@@ -4907,10 +4912,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>43</v>
@@ -4920,7 +4925,7 @@
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="16" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
@@ -4932,10 +4937,10 @@
         <v>7</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>40</v>
@@ -4955,10 +4960,10 @@
         <v>8</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>47</v>
@@ -4968,7 +4973,7 @@
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="16" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
@@ -4980,10 +4985,10 @@
         <v>9</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>40</v>
@@ -5003,10 +5008,10 @@
         <v>10</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>19</v>
@@ -5016,7 +5021,7 @@
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="16" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
@@ -5028,10 +5033,10 @@
         <v>11</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>19</v>
@@ -5041,7 +5046,7 @@
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="16" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
@@ -5401,8 +5406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141A7512-D431-462C-A6A3-3DDF3FE6DA10}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:J5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.45"/>
@@ -5446,58 +5451,58 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="20"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="27" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="29"/>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="J4" s="21"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="J4" s="19"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="27" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
       <c r="F5" s="29"/>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="21" t="s">
+      <c r="H5" s="18"/>
+      <c r="I5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="21"/>
-    </row>
-    <row r="6" spans="1:10" ht="16.5">
-      <c r="A6" s="20" t="s">
+      <c r="J5" s="19"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
     </row>
     <row r="7" spans="1:10" ht="18" thickBot="1">
       <c r="A7" s="3" t="s">
@@ -5518,12 +5523,12 @@
       <c r="F7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
     </row>
     <row r="8" spans="1:10" ht="27" thickTop="1">
       <c r="A8" s="4">
@@ -5544,10 +5549,10 @@
       <c r="F8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="24"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="22"/>
     </row>
     <row r="9" spans="1:10" ht="39.6">
       <c r="A9" s="7">
@@ -5555,20 +5560,20 @@
         <v>2</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="16" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
@@ -5580,10 +5585,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>37</v>
@@ -5592,12 +5597,12 @@
         <v>20</v>
       </c>
       <c r="F10" s="9"/>
-      <c r="G10" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
+      <c r="G10" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
     </row>
     <row r="11" spans="1:10" ht="26.45">
       <c r="A11" s="7">
@@ -5605,10 +5610,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>37</v>
@@ -5618,7 +5623,7 @@
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
@@ -5630,10 +5635,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>43</v>
@@ -5643,7 +5648,7 @@
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="16" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
@@ -6082,7 +6087,7 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:J5"/>
+      <selection activeCell="C4" sqref="C4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.45"/>
@@ -6126,58 +6131,58 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="20"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="27" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="29"/>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21" t="s">
+      <c r="H4" s="18"/>
+      <c r="I4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="21"/>
+      <c r="J4" s="19"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="27" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
       <c r="F5" s="29"/>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="21" t="s">
+      <c r="H5" s="18"/>
+      <c r="I5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="21"/>
+      <c r="J5" s="19"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
     </row>
     <row r="7" spans="1:10" ht="18" thickBot="1">
       <c r="A7" s="3" t="s">
@@ -6198,12 +6203,12 @@
       <c r="F7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
     </row>
     <row r="8" spans="1:10" ht="27" thickTop="1">
       <c r="A8" s="4">
@@ -6224,10 +6229,10 @@
       <c r="F8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="24"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="22"/>
     </row>
     <row r="9" spans="1:10" ht="26.45">
       <c r="A9" s="7">
@@ -6269,10 +6274,10 @@
         <v>20</v>
       </c>
       <c r="F10" s="9"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
     </row>
     <row r="11" spans="1:10" ht="26.45">
       <c r="A11" s="7">
@@ -6777,7 +6782,7 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:J5"/>
+      <selection activeCell="C4" sqref="C4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.45"/>
@@ -6821,58 +6826,58 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="20"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="27" t="s">
         <v>55</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="29"/>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21" t="s">
+      <c r="H4" s="18"/>
+      <c r="I4" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="J4" s="21"/>
+      <c r="J4" s="19"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="27" t="s">
         <v>57</v>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
       <c r="F5" s="29"/>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="21" t="s">
+      <c r="H5" s="18"/>
+      <c r="I5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="21"/>
+      <c r="J5" s="19"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
     </row>
     <row r="7" spans="1:10" ht="18" thickBot="1">
       <c r="A7" s="3" t="s">
@@ -6893,12 +6898,12 @@
       <c r="F7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
     </row>
     <row r="8" spans="1:10" ht="106.15" thickTop="1">
       <c r="A8" s="4">
@@ -6919,10 +6924,10 @@
       <c r="F8" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="24"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="22"/>
     </row>
     <row r="9" spans="1:10" ht="26.45">
       <c r="A9" s="7">
@@ -6966,12 +6971,12 @@
         <v>20</v>
       </c>
       <c r="F10" s="9"/>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="7">
@@ -7435,8 +7440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DFB0DFE-D17B-4A38-A801-C4E0875195B3}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:J5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.45"/>
@@ -7480,58 +7485,58 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="20"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="27" t="s">
         <v>66</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="29"/>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21" t="s">
+      <c r="H4" s="18"/>
+      <c r="I4" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="J4" s="21"/>
+      <c r="J4" s="19"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="27" t="s">
         <v>67</v>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
       <c r="F5" s="29"/>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="21" t="s">
+      <c r="H5" s="18"/>
+      <c r="I5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="21"/>
+      <c r="J5" s="19"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
     </row>
     <row r="7" spans="1:10" ht="18" thickBot="1">
       <c r="A7" s="3" t="s">
@@ -7552,12 +7557,12 @@
       <c r="F7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
     </row>
     <row r="8" spans="1:10" ht="27" thickTop="1">
       <c r="A8" s="4">
@@ -7578,10 +7583,10 @@
       <c r="F8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="24"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="22"/>
     </row>
     <row r="9" spans="1:10" ht="79.150000000000006">
       <c r="A9" s="7">
@@ -7650,10 +7655,10 @@
       <c r="F11" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G11" s="25"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="7">
@@ -8131,7 +8136,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:J5"/>
+      <selection activeCell="C4" sqref="C4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.45"/>
@@ -8175,58 +8180,58 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="20"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="27" t="s">
         <v>81</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="29"/>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21" t="s">
+      <c r="H4" s="18"/>
+      <c r="I4" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="J4" s="21"/>
+      <c r="J4" s="19"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="27" t="s">
         <v>82</v>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
       <c r="F5" s="29"/>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="21" t="s">
+      <c r="H5" s="18"/>
+      <c r="I5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="21"/>
+      <c r="J5" s="19"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
     </row>
     <row r="7" spans="1:10" ht="18" thickBot="1">
       <c r="A7" s="3" t="s">
@@ -8247,12 +8252,12 @@
       <c r="F7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
     </row>
     <row r="8" spans="1:10" ht="27" thickTop="1">
       <c r="A8" s="4">
@@ -8273,10 +8278,10 @@
       <c r="F8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="24"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="22"/>
     </row>
     <row r="9" spans="1:10" ht="79.150000000000006">
       <c r="A9" s="7">
@@ -8346,10 +8351,10 @@
         <v>20</v>
       </c>
       <c r="F11" s="9"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
     </row>
     <row r="12" spans="1:10" ht="26.45">
       <c r="A12" s="7">
@@ -8818,8 +8823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08B5E0EE-7609-48D5-9869-8C09933E2466}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:J5"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.45"/>
@@ -8863,58 +8868,58 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="20"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="27" t="s">
         <v>91</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="29"/>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21" t="s">
+      <c r="H4" s="18"/>
+      <c r="I4" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="J4" s="21"/>
+      <c r="J4" s="19"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="27" t="s">
         <v>92</v>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
       <c r="F5" s="29"/>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="21" t="s">
+      <c r="H5" s="18"/>
+      <c r="I5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="21"/>
+      <c r="J5" s="19"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
     </row>
     <row r="7" spans="1:10" ht="18" thickBot="1">
       <c r="A7" s="3" t="s">
@@ -8935,12 +8940,12 @@
       <c r="F7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
     </row>
     <row r="8" spans="1:10" ht="27" thickTop="1">
       <c r="A8" s="4">
@@ -8961,10 +8966,10 @@
       <c r="F8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="24"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="22"/>
     </row>
     <row r="9" spans="1:10" ht="79.150000000000006">
       <c r="A9" s="7">
@@ -9034,10 +9039,10 @@
         <v>20</v>
       </c>
       <c r="F11" s="9"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
     </row>
     <row r="12" spans="1:10" ht="26.45">
       <c r="A12" s="7">
@@ -9087,7 +9092,7 @@
       <c r="I13" s="16"/>
       <c r="J13" s="17"/>
     </row>
-    <row r="14" spans="1:10" ht="39.6">
+    <row r="14" spans="1:10" ht="41.25" customHeight="1">
       <c r="A14" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -9099,43 +9104,33 @@
         <v>99</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>20</v>
+        <v>40</v>
+      </c>
+      <c r="E14" s="9" t="b">
+        <v>1</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="16" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
       <c r="J14" s="17"/>
     </row>
-    <row r="15" spans="1:10" ht="26.45">
+    <row r="15" spans="1:10">
       <c r="A15" s="7">
-        <f t="shared" si="0"/>
+        <f>SUM(A14,1)</f>
         <v>8</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="9" t="b">
-        <v>1</v>
-      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="17"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="36"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="7">
@@ -9536,8 +9531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50C2582E-94D0-4600-B70F-7DA48EDBD766}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:J5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.45"/>
@@ -9581,58 +9576,58 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="20"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="27" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="29"/>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21" t="s">
+      <c r="H4" s="18"/>
+      <c r="I4" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="J4" s="21"/>
+      <c r="J4" s="19"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="27" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
       <c r="F5" s="29"/>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="21" t="s">
+      <c r="H5" s="18"/>
+      <c r="I5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="21"/>
+      <c r="J5" s="19"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
     </row>
     <row r="7" spans="1:10" ht="18" thickBot="1">
       <c r="A7" s="3" t="s">
@@ -9653,12 +9648,12 @@
       <c r="F7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
     </row>
     <row r="8" spans="1:10" ht="27" customHeight="1" thickTop="1">
       <c r="A8" s="4">
@@ -9677,14 +9672,14 @@
         <v>20</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="24"/>
-    </row>
-    <row r="9" spans="1:10" ht="79.150000000000006">
+        <v>103</v>
+      </c>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="22"/>
+    </row>
+    <row r="9" spans="1:10" ht="105.6">
       <c r="A9" s="7">
         <f>SUM(A8,1)</f>
         <v>2</v>
@@ -9702,7 +9697,7 @@
         <v>20</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G9" s="31"/>
       <c r="H9" s="32"/>
@@ -9715,10 +9710,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>107</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>19</v>
@@ -9738,10 +9733,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>108</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>109</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>19</v>
@@ -9750,10 +9745,10 @@
         <v>20</v>
       </c>
       <c r="F11" s="9"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="7">
@@ -9761,10 +9756,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>110</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>111</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>19</v>
@@ -9774,7 +9769,7 @@
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
@@ -9786,10 +9781,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>113</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>114</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>47</v>
@@ -9799,7 +9794,7 @@
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
@@ -9811,20 +9806,20 @@
         <v>7</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="D14" s="9" t="s">
         <v>117</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>118</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>20</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
@@ -9836,10 +9831,10 @@
         <v>8</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>120</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>121</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>37</v>
@@ -9849,7 +9844,7 @@
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
@@ -10254,11 +10249,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE51EB42-2843-4137-B03D-4B7C06449F1E}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:J5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.45"/>
+  <cols>
+    <col min="26" max="26" width="0" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="0" hidden="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.45" customHeight="1">
       <c r="A1" s="1"/>
@@ -10299,58 +10296,58 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="20"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="29"/>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21" t="s">
+      <c r="H4" s="18"/>
+      <c r="I4" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="J4" s="21"/>
+      <c r="J4" s="19"/>
     </row>
     <row r="5" spans="1:10" ht="16.5">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
       <c r="F5" s="29"/>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="21" t="s">
+      <c r="H5" s="18"/>
+      <c r="I5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="21"/>
+      <c r="J5" s="19"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
     </row>
     <row r="7" spans="1:10" ht="18" thickBot="1">
       <c r="A7" s="3" t="s">
@@ -10371,12 +10368,12 @@
       <c r="F7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
     </row>
     <row r="8" spans="1:10" ht="27" thickTop="1">
       <c r="A8" s="4">
@@ -10397,10 +10394,10 @@
       <c r="F8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="24"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="22"/>
     </row>
     <row r="9" spans="1:10" ht="26.45">
       <c r="A9" s="7">
@@ -10408,13 +10405,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="D9" s="9" t="s">
         <v>126</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>127</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>20</v>
@@ -10431,22 +10428,22 @@
         <v>3</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="D10" s="9" t="s">
         <v>129</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>130</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>20</v>
       </c>
       <c r="F10" s="9"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
     </row>
     <row r="11" spans="1:10" ht="26.45">
       <c r="A11" s="7">
@@ -10454,10 +10451,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>131</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>132</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>19</v>
@@ -10477,10 +10474,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>133</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>134</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>40</v>
@@ -10500,10 +10497,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>135</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>136</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>40</v>
@@ -10513,7 +10510,7 @@
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
@@ -10936,8 +10933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EDEE289-220A-4760-93F2-E3C5BFA6119F}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.45"/>
@@ -10981,58 +10978,58 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="20"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="29"/>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21" t="s">
+      <c r="H4" s="18"/>
+      <c r="I4" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="J4" s="19"/>
+    </row>
+    <row r="5" spans="1:10" ht="16.5">
+      <c r="A5" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="27" t="s">
         <v>139</v>
-      </c>
-      <c r="J4" s="21"/>
-    </row>
-    <row r="5" spans="1:10" ht="16.5">
-      <c r="A5" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="27" t="s">
-        <v>140</v>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
       <c r="F5" s="29"/>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="21" t="s">
+      <c r="H5" s="18"/>
+      <c r="I5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="21"/>
+      <c r="J5" s="19"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
     </row>
     <row r="7" spans="1:10" ht="18" thickBot="1">
       <c r="A7" s="3" t="s">
@@ -11053,22 +11050,22 @@
       <c r="F7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
     </row>
     <row r="8" spans="1:10" ht="27" customHeight="1" thickTop="1" thickBot="1">
       <c r="A8" s="4">
         <v>1</v>
       </c>
       <c r="B8" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>141</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>142</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>19</v>
@@ -11079,10 +11076,10 @@
       <c r="F8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="35"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="38"/>
     </row>
     <row r="9" spans="1:10" ht="53.45" thickTop="1">
       <c r="A9" s="7">
@@ -11090,10 +11087,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>143</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>144</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>19</v>
@@ -11104,10 +11101,10 @@
       <c r="F9" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="G9" s="36"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="38"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="41"/>
     </row>
     <row r="10" spans="1:10" ht="79.150000000000006">
       <c r="A10" s="7">
@@ -11118,7 +11115,7 @@
         <v>68</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>19</v>
@@ -11140,15 +11137,17 @@
         <v>4</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>146</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>147</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="9"/>
+      <c r="E11" s="9" t="b">
+        <v>1</v>
+      </c>
       <c r="F11" s="10"/>
       <c r="G11" s="31"/>
       <c r="H11" s="32"/>
@@ -11161,20 +11160,22 @@
         <v>5</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>148</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>149</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="9"/>
+      <c r="E12" s="9" t="b">
+        <v>1</v>
+      </c>
       <c r="F12" s="9"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
     </row>
     <row r="13" spans="1:10" ht="26.45">
       <c r="A13" s="7">
@@ -11182,10 +11183,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>150</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>151</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>47</v>
@@ -11195,7 +11196,7 @@
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>

--- a/documents/테이블 정의서.xlsx
+++ b/documents/테이블 정의서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\clone\TJSManager\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1F3C665-1A6D-44B3-B702-49B0E94C8F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{709228D4-0174-45BA-A2ED-EA707D7385C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" firstSheet="8" activeTab="8" xr2:uid="{23F431DE-E5DE-4A76-B807-59BB60D14234}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" firstSheet="8" activeTab="7" xr2:uid="{23F431DE-E5DE-4A76-B807-59BB60D14234}"/>
   </bookViews>
   <sheets>
     <sheet name="멤버쉽 고객 구매 이력" sheetId="10" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="230">
   <si>
     <t>테이블정의서</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -10249,7 +10249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE51EB42-2843-4137-B03D-4B7C06449F1E}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.45"/>
   <cols>
@@ -10933,8 +10933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EDEE289-220A-4760-93F2-E3C5BFA6119F}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.45"/>
@@ -11012,9 +11012,7 @@
         <v>7</v>
       </c>
       <c r="H5" s="18"/>
-      <c r="I5" s="19" t="s">
-        <v>8</v>
-      </c>
+      <c r="I5" s="19"/>
       <c r="J5" s="19"/>
     </row>
     <row r="6" spans="1:10">

--- a/documents/테이블 정의서.xlsx
+++ b/documents/테이블 정의서.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26725"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\siat_final_project\TJSManager\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFA69CEC-E562-4237-A1D0-54ED07DE329D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBA48EC2-43A6-4396-8CD1-8C196CF6ACB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{23F431DE-E5DE-4A76-B807-59BB60D14234}"/>
   </bookViews>

--- a/documents/테이블 정의서.xlsx
+++ b/documents/테이블 정의서.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26803"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\siat_final_project\TJSManager\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBA48EC2-43A6-4396-8CD1-8C196CF6ACB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{075B0F5F-EF19-43A0-841F-8FFDB1B7240C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{23F431DE-E5DE-4A76-B807-59BB60D14234}"/>
   </bookViews>

--- a/documents/테이블 정의서.xlsx
+++ b/documents/테이블 정의서.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26803"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26807"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\siat_final_project\TJSManager\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{075B0F5F-EF19-43A0-841F-8FFDB1B7240C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CFE567F-D033-4784-819E-647E4E5A1403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{23F431DE-E5DE-4A76-B807-59BB60D14234}"/>
   </bookViews>
